--- a/Month_End/Deposit_Exceptions.xlsx
+++ b/Month_End/Deposit_Exceptions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alteryx\alteryx_workflows\dvm_alteryx\util\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\alteryx\alteryx_workflows\dvm_dl1_alteryx\Month_End\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>merchant_number</t>
   </si>
@@ -47,20 +47,17 @@
     <t>batch_date</t>
   </si>
   <si>
-    <t>Netted August 2017 Invoice</t>
-  </si>
-  <si>
-    <t>Netted September 2016 Invoice</t>
-  </si>
-  <si>
-    <t>Equipment Lease Fee Charged to PBS</t>
+    <t>Netted October 2017 Invoice</t>
+  </si>
+  <si>
+    <t>Netted September 2017 Invoice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +77,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,11 +105,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,11 +392,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -428,140 +431,209 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>224996</v>
+        <v>352266</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>2017</v>
       </c>
-      <c r="D2" s="1">
-        <v>9.65</v>
+      <c r="D2" s="2">
+        <v>3.98</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" s="3">
-        <v>43045</v>
+        <v>43075</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>224996</v>
+        <v>351702</v>
       </c>
       <c r="B3" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>2017</v>
       </c>
-      <c r="D3" s="1">
-        <v>5.14</v>
+      <c r="D3" s="2">
+        <v>2.5299999999999998</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="3">
-        <v>43045</v>
+        <v>43075</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>351958</v>
+        <v>351702</v>
       </c>
       <c r="B4" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>2017</v>
       </c>
-      <c r="D4" s="1">
-        <v>10.47</v>
+      <c r="D4" s="2">
+        <v>0.18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" s="3">
-        <v>43045</v>
+        <v>43075</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>350486</v>
+        <v>351389</v>
       </c>
       <c r="B5" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>2017</v>
       </c>
-      <c r="D5" s="1">
-        <v>24.39</v>
+      <c r="D5" s="2">
+        <v>1.67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" s="3">
-        <v>43045</v>
+        <v>43075</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5994</v>
+        <v>351031</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>2017</v>
       </c>
-      <c r="D6" s="1">
-        <v>1.03</v>
+      <c r="D6" s="5">
+        <v>1050.68</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" s="3">
-        <v>43045</v>
+        <v>43075</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <v>218480</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="2">
+        <v>14.61</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>78</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>218480</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9.19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <v>78</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>211950</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4.47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>78</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>201531</v>
       </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2017</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B10" s="1">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="4">
         <v>45.45</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>77</v>
-      </c>
-      <c r="G7" s="3">
-        <v>43045</v>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43075</v>
       </c>
     </row>
   </sheetData>

--- a/Month_End/Deposit_Exceptions.xlsx
+++ b/Month_End/Deposit_Exceptions.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="8610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14130" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="throwaway" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="61">
   <si>
     <t>merchant_number</t>
   </si>
@@ -186,14 +187,38 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>Netted January 2018 Invoice</t>
+    <t>Netted February 2018 Invoice</t>
+  </si>
+  <si>
+    <t>merchant_code</t>
+  </si>
+  <si>
+    <t>Alteryx</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>4-4-10-FIRST_DATA</t>
+  </si>
+  <si>
+    <t>3F7C3EEF2241A0A672750139CBF937A23D38B71B3F21F9E15BFE01EE6055C60A</t>
+  </si>
+  <si>
+    <t>March 2018 Lease Payment</t>
+  </si>
+  <si>
+    <t>Netted March 2018 Invoice</t>
+  </si>
+  <si>
+    <t>March 2018 Tax Levy Hold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +267,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -269,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,6 +320,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,24 +649,696 @@
       <c r="A2" s="4">
         <v>201531</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>2018</v>
       </c>
       <c r="D2" s="4">
-        <v>90.9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="1">
-        <v>81</v>
+        <v>45.45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2">
+        <v>83</v>
       </c>
       <c r="G2" s="3">
-        <v>43137</v>
-      </c>
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>215163</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3">
+        <v>83</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>215163</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4">
+        <v>83</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>216238</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6.92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>83</v>
+      </c>
+      <c r="G5" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>226099</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>83</v>
+      </c>
+      <c r="G6" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>226678</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <v>83</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>351167</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <v>83</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>353131</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>83</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>355190</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10">
+        <v>83</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>357693</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <v>83</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>351407</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="15">
+        <v>43.1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>351470</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="15">
+        <v>22.71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>83</v>
+      </c>
+      <c r="G13" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>351570</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="15">
+        <v>182.38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14">
+        <v>83</v>
+      </c>
+      <c r="G14" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>351753</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15" s="15">
+        <v>398.74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>83</v>
+      </c>
+      <c r="G15" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>351702</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="15">
+        <v>14.44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>83</v>
+      </c>
+      <c r="G16" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>351673</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2018</v>
+      </c>
+      <c r="D17" s="15">
+        <v>157.88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>83</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>352060</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="15">
+        <v>154.97999999999999</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18">
+        <v>83</v>
+      </c>
+      <c r="G18" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>352337</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2018</v>
+      </c>
+      <c r="D19" s="15">
+        <v>829.14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>83</v>
+      </c>
+      <c r="G19" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>352458</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2018</v>
+      </c>
+      <c r="D20" s="15">
+        <v>300.77999999999997</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>83</v>
+      </c>
+      <c r="G20" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>352446</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2018</v>
+      </c>
+      <c r="D21" s="15">
+        <v>87.44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>83</v>
+      </c>
+      <c r="G21" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>352155</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1597.01</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>83</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>352156</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2018</v>
+      </c>
+      <c r="D23" s="15">
+        <v>857.17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>83</v>
+      </c>
+      <c r="G23" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>352493</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2018</v>
+      </c>
+      <c r="D24" s="15">
+        <v>178.29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>83</v>
+      </c>
+      <c r="G24" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>352728</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2018</v>
+      </c>
+      <c r="D25" s="15">
+        <v>699.43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>83</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>353062</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2018</v>
+      </c>
+      <c r="D26" s="15">
+        <v>812.73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <v>83</v>
+      </c>
+      <c r="G26" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>353356</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2018</v>
+      </c>
+      <c r="D27" s="15">
+        <v>592.9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>83</v>
+      </c>
+      <c r="G27" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>352629</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="15">
+        <v>489.63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>83</v>
+      </c>
+      <c r="G28" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>352785</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2018</v>
+      </c>
+      <c r="D29" s="15">
+        <v>104.41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29">
+        <v>83</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>352377</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2018</v>
+      </c>
+      <c r="D30" s="15">
+        <v>229.84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>83</v>
+      </c>
+      <c r="G30" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>353029</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>2018</v>
+      </c>
+      <c r="D31" s="15">
+        <v>160.61000000000001</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31">
+        <v>83</v>
+      </c>
+      <c r="G31" s="3">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -638,6 +1347,242 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>82</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43165</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>85129</v>
+      </c>
+      <c r="G2">
+        <v>351966</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>201802</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2018</v>
+      </c>
+      <c r="L2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>83</v>
+      </c>
+      <c r="D3" s="14">
+        <v>43195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:R31">
+    <sortCondition ref="L5"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
@@ -1871,7 +2816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16384"/>
   <sheetViews>
@@ -51172,7 +52117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -51436,7 +52381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
